--- a/Docs/HMDA-data-dictionary.xlsx
+++ b/Docs/HMDA-data-dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd450905e0e0ab08/3_Work_Research/uon-msc-thesis/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EE31FC9-DDE7-45A5-B66E-F5CB440A5025}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47259A3D-CFB7-4081-B158-450C8C0FCFA8}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HMDA" sheetId="1" r:id="rId1"/>
@@ -68,24 +68,10 @@
     <t xml:space="preserve">Single aggregated race categorization derived from applicant/borrower and co-applicant/co-borrower race fields </t>
   </si>
   <si>
-    <t>American Indian or Alaska Native
-Asian
-Black or African American
-Native Hawaiian or Other Pacific Islander
-White
-2 or more minority races
-Joint
-Free Form Text Only
-Race Not Available</t>
-  </si>
-  <si>
     <t xml:space="preserve">derived_sex </t>
   </si>
   <si>
     <t xml:space="preserve">Single aggregated sex categorization derived from applicant/borrower and co-applicant/co-borrower sex fields </t>
-  </si>
-  <si>
-    <t>Male, Female, Joint, Not Available</t>
   </si>
   <si>
     <t xml:space="preserve">type_of_purchaser </t>
@@ -205,16 +191,6 @@
   </si>
   <si>
     <t xml:space="preserve">applicant_age </t>
-  </si>
-  <si>
-    <t>&lt;25
-25-34
-35-44
-45-54
-55-64
-65-74
-&gt;74
-8888</t>
   </si>
   <si>
     <t xml:space="preserve">agency </t>
@@ -318,6 +294,32 @@
       <t xml:space="preserve">. These guidelines are designed to standardize loan terms, making it easier for lenders to sell the loans on the secondary mortgage market.
 </t>
     </r>
+  </si>
+  <si>
+    <t>1 American Indian or Alaska Native
+2 Asian
+3 Black or African American
+4 Native Hawaiian or Other Pacific Islander
+5 White
+6 Two or more minority races
+7 Joint
+8 Free Form Text Only &amp; Race Not Available</t>
+  </si>
+  <si>
+    <t>1 Female 
+2 Male
+3 Joint 
+4 Not Available</t>
+  </si>
+  <si>
+    <t>1-  &lt;25
+2-  25-34
+3-  35-44
+4-  45-54
+5-  55-64
+6-  65-74
+7-  &gt;74
+8888</t>
   </si>
 </sst>
 </file>
@@ -753,8 +755,8 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -807,7 +809,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -815,197 +817,197 @@
         <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="D8" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="131.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="2"/>

--- a/Docs/HMDA-data-dictionary.xlsx
+++ b/Docs/HMDA-data-dictionary.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -755,8 +755,8 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Docs/HMDA-data-dictionary.xlsx
+++ b/Docs/HMDA-data-dictionary.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -755,8 +755,8 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
